--- a/ArticleManage/main_working_folder/output_folders/Data 130 Characteristics of Activated Carbon/Data130_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 130 Characteristics of Activated Carbon/Data130_all_graphs_excel.xlsx
@@ -5,10 +5,10 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="IA1" sheetId="1" r:id="rId1"/>
-    <sheet name="IA2" sheetId="2" r:id="rId4"/>
-    <sheet name="IA3" sheetId="3" r:id="rId5"/>
-    <sheet name="IA4" sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 1_1 IA1  0-1-0-225 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1_1 IA2  0-1-0-225 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1_1 IA3  0-1-0-225 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1_1 IA4  0-1-0-225 " sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -109,7 +109,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki IA1</a:t>
+              <a:t>Izoterma adsorpcji probki IA1 z wykresu 'Figure 1_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -168,12 +168,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>IA1!$A$3:$A$50</c:f>
+              <c:f>'Figure 1_1 IA1  0-1-0-225 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>IA1!$B$3:$B$50</c:f>
+              <c:f>'Figure 1_1 IA1  0-1-0-225 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -186,6 +186,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -255,6 +257,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="225"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -419,7 +423,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki IA2</a:t>
+              <a:t>Izoterma adsorpcji probki IA2 z wykresu 'Figure 1_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -478,12 +482,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>IA2!$A$3:$A$50</c:f>
+              <c:f>'Figure 1_1 IA2  0-1-0-225 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>IA2!$B$3:$B$50</c:f>
+              <c:f>'Figure 1_1 IA2  0-1-0-225 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -496,6 +500,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -565,6 +571,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="225"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -729,7 +737,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki IA3</a:t>
+              <a:t>Izoterma adsorpcji probki IA3 z wykresu 'Figure 1_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -788,12 +796,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>IA3!$A$3:$A$50</c:f>
+              <c:f>'Figure 1_1 IA3  0-1-0-225 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>IA3!$B$3:$B$50</c:f>
+              <c:f>'Figure 1_1 IA3  0-1-0-225 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -806,6 +814,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -875,6 +885,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="225"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1039,7 +1051,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki IA4</a:t>
+              <a:t>Izoterma adsorpcji probki IA4 z wykresu 'Figure 1_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1098,12 +1110,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>IA4!$A$3:$A$50</c:f>
+              <c:f>'Figure 1_1 IA4  0-1-0-225 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>IA4!$B$3:$B$50</c:f>
+              <c:f>'Figure 1_1 IA4  0-1-0-225 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1116,6 +1128,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1185,6 +1199,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="225"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 130 Characteristics of Activated Carbon/Data130_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 130 Characteristics of Activated Carbon/Data130_all_graphs_excel.xlsx
@@ -5,28 +5,24 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 1_1 IA1  0-1-0-225 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 1_1 IA2  0-1-0-225 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 1_1 IA3  0-1-0-225 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 1_1 IA4  0-1-0-225 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 1_1 IA2  0-1-0-225 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1_1 IA3  0-1-0-225 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1_1 IA4  0-1-0-225 " sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>IA1</t>
+    <t>IA2</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>IA2</t>
   </si>
   <si>
     <t>IA3</t>
@@ -77,320 +73,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki IA1 z wykresu 'Figure 1_1' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 1_1 IA1  0-1-0-225 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 1_1 IA1  0-1-0-225 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="225"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -704,7 +386,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1018,7 +700,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1452,46 +1134,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
@@ -2535,527 +2177,6 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3664,41 +2785,6 @@
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="chart"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4013,7 +3099,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4034,277 +3120,301 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.247</v>
+        <v>0.2018</v>
       </c>
       <c r="B3" s="0">
-        <v>116.6346</v>
+        <v>124.331</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.2892</v>
+        <v>0.2526</v>
       </c>
       <c r="B4" s="0">
-        <v>115.9878</v>
+        <v>125.1038</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.322</v>
+        <v>0.3015</v>
       </c>
       <c r="B5" s="0">
-        <v>116.4716</v>
+        <v>125.8063</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.3533</v>
+        <v>0.3504</v>
       </c>
       <c r="B6" s="0">
-        <v>116.476</v>
+        <v>126.5088</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.3846</v>
+        <v>0.4012</v>
       </c>
       <c r="B7" s="0">
-        <v>116.1994</v>
+        <v>127.0708</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.4159</v>
+        <v>0.4511</v>
       </c>
       <c r="B8" s="0">
-        <v>116.5024</v>
+        <v>127.7382</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.4472</v>
+        <v>0.501</v>
       </c>
       <c r="B9" s="0">
-        <v>116.6297</v>
+        <v>127.9138</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.4785</v>
+        <v>0.5323</v>
       </c>
       <c r="B10" s="0">
-        <v>117.1017</v>
+        <v>127.9138</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.5098</v>
+        <v>0.5508</v>
       </c>
       <c r="B11" s="0">
-        <v>116.4029</v>
+        <v>127.0357</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.5411</v>
+        <v>0.632</v>
       </c>
       <c r="B12" s="0">
-        <v>116.9415</v>
+        <v>128.1246</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.5723</v>
+        <v>0.6506</v>
       </c>
       <c r="B13" s="0">
-        <v>116.6253</v>
+        <v>127.1235</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.6036</v>
+        <v>0.6818</v>
       </c>
       <c r="B14" s="0">
-        <v>116.3663</v>
+        <v>127.9138</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.6349</v>
+        <v>0.7024</v>
       </c>
       <c r="B15" s="0">
-        <v>116.2599</v>
+        <v>127.2113</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.6662</v>
+        <v>0.7317</v>
       </c>
       <c r="B16" s="0">
-        <v>116.498</v>
+        <v>128.1246</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.6975</v>
+        <v>0.8813</v>
       </c>
       <c r="B17" s="0">
-        <v>116.476</v>
+        <v>128.1965</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.7288</v>
+        <v>0.9018</v>
       </c>
       <c r="B18" s="0">
-        <v>116.3882</v>
+        <v>128.0552</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.7601</v>
+        <v>0.9331</v>
       </c>
       <c r="B19" s="0">
-        <v>115.9052</v>
+        <v>128.2659</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.7913</v>
+        <v>0.9701</v>
       </c>
       <c r="B20" s="0">
-        <v>115.8613</v>
+        <v>128.25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.8226</v>
+        <v>0.8324</v>
       </c>
       <c r="B21" s="0">
-        <v>115.9931</v>
+        <v>128.0465</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.8539</v>
+        <v>0.8206</v>
       </c>
       <c r="B22" s="0">
-        <v>116.4541</v>
+        <v>127.7638</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.8852</v>
+        <v>0.7821</v>
       </c>
       <c r="B23" s="0">
-        <v>116.015</v>
+        <v>128.3291</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.989</v>
+        <v>0.7687</v>
       </c>
       <c r="B24" s="0">
-        <v>208.6055</v>
+        <v>127.7638</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.9536</v>
+        <v>0.9913</v>
       </c>
       <c r="B25" s="0">
-        <v>116.1746</v>
+        <v>128.8945</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.9072</v>
+        <v>0.8509</v>
       </c>
       <c r="B26" s="0">
-        <v>115.3266</v>
+        <v>127.7638</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.2038</v>
+        <v>0.5822</v>
       </c>
       <c r="B27" s="0">
-        <v>115.892</v>
+        <v>128.3291</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.1487</v>
+        <v>0.6011</v>
       </c>
       <c r="B28" s="0">
-        <v>114.7613</v>
+        <v>127.4812</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.1031</v>
+        <v>0.1518</v>
       </c>
       <c r="B29" s="0">
-        <v>113.0653</v>
+        <v>122.8172</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.081</v>
+        <v>0.105</v>
       </c>
       <c r="B30" s="0">
-        <v>111.652</v>
+        <v>121.6866</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.0653</v>
+        <v>0.0913</v>
       </c>
       <c r="B31" s="0">
-        <v>111.0867</v>
+        <v>121.2626</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.0393</v>
+        <v>0.081</v>
       </c>
       <c r="B32" s="0">
-        <v>109.3907</v>
+        <v>120.6972</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.026</v>
+        <v>0.0724</v>
       </c>
       <c r="B33" s="0">
-        <v>105.7161</v>
+        <v>120.1319</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.0134</v>
+        <v>0.0622</v>
       </c>
       <c r="B34" s="0">
-        <v>100.9108</v>
+        <v>119.1426</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.0087</v>
+        <v>0.0523</v>
       </c>
       <c r="B35" s="0">
-        <v>97.5188</v>
+        <v>118.4359</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.0031</v>
+        <v>0.0409</v>
       </c>
       <c r="B36" s="0">
-        <v>93.8442</v>
-      </c>
-    </row>
-    <row r="37"/>
+        <v>117.1639</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.0307</v>
+      </c>
+      <c r="B37" s="0">
+        <v>115.892</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.0216</v>
+      </c>
+      <c r="B38" s="0">
+        <v>113.6307</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.0114</v>
+      </c>
+      <c r="B39" s="0">
+        <v>111.0867</v>
+      </c>
+    </row>
+    <row r="40"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -4313,7 +3423,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4334,293 +3444,269 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0171</v>
+        <v>0.0008</v>
       </c>
       <c r="B3" s="0">
-        <v>111.7482</v>
+        <v>81.1244</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0356</v>
+        <v>0.0016</v>
       </c>
       <c r="B4" s="0">
-        <v>116.5419</v>
+        <v>85.3643</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0571</v>
+        <v>0.0055</v>
       </c>
       <c r="B5" s="0">
-        <v>118.6494</v>
+        <v>89.8869</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0766</v>
+        <v>0.0134</v>
       </c>
       <c r="B6" s="0">
-        <v>120.0545</v>
+        <v>93.5616</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0972</v>
+        <v>0.0236</v>
       </c>
       <c r="B7" s="0">
-        <v>121.3278</v>
+        <v>95.2575</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1509</v>
+        <v>0.035</v>
       </c>
       <c r="B8" s="0">
-        <v>122.3104</v>
+        <v>97.3775</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.2018</v>
+        <v>0.0468</v>
       </c>
       <c r="B9" s="0">
-        <v>124.331</v>
+        <v>98.7908</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.2526</v>
+        <v>0.059</v>
       </c>
       <c r="B10" s="0">
-        <v>125.1038</v>
+        <v>100.0628</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.3015</v>
+        <v>0.0696</v>
       </c>
       <c r="B11" s="0">
-        <v>125.8063</v>
+        <v>100.7695</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.3504</v>
+        <v>0.0806</v>
       </c>
       <c r="B12" s="0">
-        <v>126.5088</v>
+        <v>101.3348</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.4012</v>
+        <v>0.0921</v>
       </c>
       <c r="B13" s="0">
-        <v>127.0708</v>
+        <v>102.1828</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.4511</v>
+        <v>0.1027</v>
       </c>
       <c r="B14" s="0">
-        <v>127.7382</v>
+        <v>102.8894</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.501</v>
+        <v>0.1511</v>
       </c>
       <c r="B15" s="0">
-        <v>127.9138</v>
+        <v>104.0201</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.5323</v>
+        <v>0.2022</v>
       </c>
       <c r="B16" s="0">
-        <v>127.9138</v>
+        <v>105.2921</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.5508</v>
+        <v>0.2522</v>
       </c>
       <c r="B17" s="0">
-        <v>127.0357</v>
+        <v>105.7161</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.585</v>
+        <v>0.3029</v>
       </c>
       <c r="B18" s="0">
-        <v>127.6328</v>
+        <v>106.4227</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.6017</v>
+        <v>0.3509</v>
       </c>
       <c r="B19" s="0">
-        <v>127.3869</v>
+        <v>106.5641</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.632</v>
+        <v>0.4013</v>
       </c>
       <c r="B20" s="0">
-        <v>128.1246</v>
+        <v>107.1294</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.6506</v>
+        <v>0.4296</v>
       </c>
       <c r="B21" s="0">
-        <v>127.1235</v>
+        <v>107.6947</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.6818</v>
+        <v>0.4504</v>
       </c>
       <c r="B22" s="0">
-        <v>127.9138</v>
+        <v>105.7161</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.7024</v>
+        <v>0.4811</v>
       </c>
       <c r="B23" s="0">
-        <v>127.2113</v>
+        <v>107.8361</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.7317</v>
+        <v>0.5205</v>
       </c>
       <c r="B24" s="0">
-        <v>128.1246</v>
+        <v>106.5641</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.8454</v>
+        <v>0.5511</v>
       </c>
       <c r="B25" s="0">
-        <v>127.7967</v>
+        <v>106.7054</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.8549</v>
+        <v>0.6011</v>
       </c>
       <c r="B26" s="0">
-        <v>127.2113</v>
+        <v>106.8467</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.8813</v>
+        <v>0.631</v>
       </c>
       <c r="B27" s="0">
-        <v>127.9138</v>
+        <v>107.4121</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.9018</v>
+        <v>0.6703</v>
       </c>
       <c r="B28" s="0">
-        <v>127.9138</v>
+        <v>106.5641</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.9331</v>
+        <v>0.7199</v>
       </c>
       <c r="B29" s="0">
-        <v>128.1246</v>
+        <v>106.1401</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.9693</v>
+        <v>0.7695</v>
       </c>
       <c r="B30" s="0">
-        <v>127.826</v>
+        <v>106.1401</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.9918</v>
+        <v>0.9898</v>
       </c>
       <c r="B31" s="0">
-        <v>128.6163</v>
+        <v>108.5427</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.8324</v>
+        <v>0.9496</v>
       </c>
       <c r="B32" s="0">
-        <v>128.0465</v>
+        <v>107.4121</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.8206</v>
+        <v>0.9315</v>
       </c>
       <c r="B33" s="0">
-        <v>127.7638</v>
+        <v>107.8361</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.7821</v>
+        <v>0.9194</v>
       </c>
       <c r="B34" s="0">
-        <v>128.3291</v>
+        <v>107.6947</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.7687</v>
+        <v>0.8816</v>
       </c>
       <c r="B35" s="0">
-        <v>127.7638</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.022</v>
-      </c>
-      <c r="B36" s="0">
-        <v>114.4786</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.0094</v>
-      </c>
-      <c r="B37" s="0">
-        <v>109.6734</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.1078</v>
-      </c>
-      <c r="B38" s="0">
-        <v>122.1106</v>
-      </c>
-    </row>
-    <row r="39"/>
+        <v>108.684</v>
+      </c>
+    </row>
+    <row r="36"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -4629,7 +3715,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4650,178 +3736,178 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.08</v>
+        <v>0.0023</v>
       </c>
       <c r="B3" s="0">
-        <v>101.0878</v>
+        <v>89.3567</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.1</v>
+        <v>0.0106</v>
       </c>
       <c r="B4" s="0">
-        <v>102.2995</v>
+        <v>103.461</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.12</v>
+        <v>0.0208</v>
       </c>
       <c r="B5" s="0">
-        <v>102.9615</v>
+        <v>106.6493</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.14</v>
+        <v>0.032</v>
       </c>
       <c r="B6" s="0">
-        <v>103.6788</v>
+        <v>108.665</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.16</v>
+        <v>0.0426</v>
       </c>
       <c r="B7" s="0">
-        <v>104.3452</v>
+        <v>109.7594</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.18</v>
+        <v>0.0521</v>
       </c>
       <c r="B8" s="0">
-        <v>104.799</v>
+        <v>110.8863</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.2</v>
+        <v>0.0622</v>
       </c>
       <c r="B9" s="0">
-        <v>105.102</v>
+        <v>111.3345</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.22</v>
+        <v>0.0725</v>
       </c>
       <c r="B10" s="0">
-        <v>105.3544</v>
+        <v>112.1073</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.24</v>
+        <v>0.0829</v>
       </c>
       <c r="B11" s="0">
-        <v>105.5517</v>
+        <v>112.5589</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.26</v>
+        <v>0.093</v>
       </c>
       <c r="B12" s="0">
-        <v>105.6853</v>
+        <v>112.4585</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.28</v>
+        <v>0.1032</v>
       </c>
       <c r="B13" s="0">
-        <v>105.8241</v>
+        <v>113.272</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3</v>
+        <v>0.1503</v>
       </c>
       <c r="B14" s="0">
-        <v>106.0231</v>
+        <v>113.9487</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.32</v>
+        <v>0.181</v>
       </c>
       <c r="B15" s="0">
-        <v>106.2579</v>
+        <v>114.5661</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.34</v>
+        <v>0.2024</v>
       </c>
       <c r="B16" s="0">
-        <v>106.4925</v>
+        <v>113.3172</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.36</v>
+        <v>0.231</v>
       </c>
       <c r="B17" s="0">
-        <v>106.6674</v>
+        <v>114.485</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.38</v>
+        <v>0.252</v>
       </c>
       <c r="B18" s="0">
-        <v>106.7562</v>
+        <v>113.3172</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.4</v>
+        <v>0.2805</v>
       </c>
       <c r="B19" s="0">
-        <v>106.8012</v>
+        <v>114.4934</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.42</v>
+        <v>0.3022</v>
       </c>
       <c r="B20" s="0">
-        <v>106.8479</v>
+        <v>113.3172</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.44</v>
+        <v>0.3517</v>
       </c>
       <c r="B21" s="0">
-        <v>106.9397</v>
+        <v>112.7017</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.46</v>
+        <v>0.4016</v>
       </c>
       <c r="B22" s="0">
-        <v>107.087</v>
+        <v>113.4033</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.48</v>
+        <v>0.4196</v>
       </c>
       <c r="B23" s="0">
-        <v>107.214</v>
+        <v>112.1853</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.5</v>
+        <v>0.4702</v>
       </c>
       <c r="B24" s="0">
-        <v>107.2502</v>
+        <v>111.5219</v>
       </c>
     </row>
     <row r="25">
@@ -4829,426 +3915,6 @@
         <v>0.52</v>
       </c>
       <c r="B25" s="0">
-        <v>107.195</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.54</v>
-      </c>
-      <c r="B26" s="0">
-        <v>107.0726</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.56</v>
-      </c>
-      <c r="B27" s="0">
-        <v>106.959</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.58</v>
-      </c>
-      <c r="B28" s="0">
-        <v>106.9054</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.6</v>
-      </c>
-      <c r="B29" s="0">
-        <v>106.8731</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.62</v>
-      </c>
-      <c r="B30" s="0">
-        <v>106.8317</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.64</v>
-      </c>
-      <c r="B31" s="0">
-        <v>106.813</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B32" s="0">
-        <v>106.8317</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B33" s="0">
-        <v>106.8371</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B34" s="0">
-        <v>106.7739</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B35" s="0">
-        <v>106.619</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B36" s="0">
-        <v>106.3906</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B37" s="0">
-        <v>106.1498</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B38" s="0">
-        <v>105.9665</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B39" s="0">
-        <v>105.9444</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B40" s="0">
-        <v>106.1167</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B41" s="0">
-        <v>106.4672</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B42" s="0">
-        <v>106.9125</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B43" s="0">
-        <v>107.3494</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B44" s="0">
-        <v>107.713</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B45" s="0">
-        <v>107.9331</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B46" s="0">
-        <v>108.0963</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9882</v>
-      </c>
-      <c r="B47" s="0">
-        <v>107.9774</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.0598</v>
-      </c>
-      <c r="B48" s="0">
-        <v>99.7802</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.0378</v>
-      </c>
-      <c r="B49" s="0">
-        <v>97.5188</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.0181</v>
-      </c>
-      <c r="B50" s="0">
-        <v>94.4095</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0087</v>
-      </c>
-      <c r="B51" s="0">
-        <v>89.0389</v>
-      </c>
-    </row>
-    <row r="52"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.0023</v>
-      </c>
-      <c r="B3" s="0">
-        <v>89.3567</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.0106</v>
-      </c>
-      <c r="B4" s="0">
-        <v>103.461</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.0208</v>
-      </c>
-      <c r="B5" s="0">
-        <v>106.6493</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.032</v>
-      </c>
-      <c r="B6" s="0">
-        <v>108.665</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.0426</v>
-      </c>
-      <c r="B7" s="0">
-        <v>109.7594</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.0521</v>
-      </c>
-      <c r="B8" s="0">
-        <v>110.8863</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.0622</v>
-      </c>
-      <c r="B9" s="0">
-        <v>111.3345</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.0725</v>
-      </c>
-      <c r="B10" s="0">
-        <v>112.1073</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.0829</v>
-      </c>
-      <c r="B11" s="0">
-        <v>112.5589</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.093</v>
-      </c>
-      <c r="B12" s="0">
-        <v>112.4585</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.1032</v>
-      </c>
-      <c r="B13" s="0">
-        <v>113.272</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.1503</v>
-      </c>
-      <c r="B14" s="0">
-        <v>113.9487</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.181</v>
-      </c>
-      <c r="B15" s="0">
-        <v>114.5661</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.2024</v>
-      </c>
-      <c r="B16" s="0">
-        <v>113.3172</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.231</v>
-      </c>
-      <c r="B17" s="0">
-        <v>114.485</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.252</v>
-      </c>
-      <c r="B18" s="0">
-        <v>113.3172</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.2805</v>
-      </c>
-      <c r="B19" s="0">
-        <v>114.4934</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.3022</v>
-      </c>
-      <c r="B20" s="0">
-        <v>113.3172</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.3517</v>
-      </c>
-      <c r="B21" s="0">
-        <v>112.7017</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.4016</v>
-      </c>
-      <c r="B22" s="0">
-        <v>113.4033</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.4196</v>
-      </c>
-      <c r="B23" s="0">
-        <v>112.1853</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.4702</v>
-      </c>
-      <c r="B24" s="0">
-        <v>111.5219</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.52</v>
-      </c>
-      <c r="B25" s="0">
         <v>110.7023</v>
       </c>
     </row>
@@ -5340,7 +4006,103 @@
         <v>98.6495</v>
       </c>
     </row>
-    <row r="37"/>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.3312</v>
+      </c>
+      <c r="B37" s="0">
+        <v>114.3373</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.4312</v>
+      </c>
+      <c r="B38" s="0">
+        <v>113.6307</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.4815</v>
+      </c>
+      <c r="B39" s="0">
+        <v>113.4893</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.5311</v>
+      </c>
+      <c r="B40" s="0">
+        <v>112.924</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.5806</v>
+      </c>
+      <c r="B41" s="0">
+        <v>111.9347</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.6302</v>
+      </c>
+      <c r="B42" s="0">
+        <v>111.3693</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.681</v>
+      </c>
+      <c r="B43" s="0">
+        <v>110.2387</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>0.7305</v>
+      </c>
+      <c r="B44" s="0">
+        <v>109.3907</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>0.7805</v>
+      </c>
+      <c r="B45" s="0">
+        <v>107.9774</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>0.8312</v>
+      </c>
+      <c r="B46" s="0">
+        <v>107.6947</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>0.8808</v>
+      </c>
+      <c r="B47" s="0">
+        <v>106.4227</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>0.9127</v>
+      </c>
+      <c r="B48" s="0">
+        <v>105.9987</v>
+      </c>
+    </row>
+    <row r="49"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 130 Characteristics of Activated Carbon/Data130_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 130 Characteristics of Activated Carbon/Data130_all_graphs_excel.xlsx
@@ -5,24 +5,36 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 1_1 IA2  0-1-0-225 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 1_1 IA3  0-1-0-225 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 1_1 IA4  0-1-0-225 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1 CIA1  0&amp;1&amp;0&amp;150 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1 CIA3  0&amp;1&amp;0&amp;150 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1 CIA4  0&amp;1&amp;0&amp;150 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1_1 IA2  0&amp;1&amp;0&amp;225 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 1_1 IA3  0&amp;1&amp;0&amp;225 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 1_1 IA4  0&amp;1&amp;0&amp;225 " sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>IA2</t>
+    <t>CIA1</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>CIA3</t>
+  </si>
+  <si>
+    <t>CIA4</t>
+  </si>
+  <si>
+    <t>IA2</t>
   </si>
   <si>
     <t>IA3</t>
@@ -73,6 +85,948 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki CIA1 z wykresu 'Figure 1' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 1 CIA1  0&amp;1&amp;0&amp;150 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 1 CIA1  0&amp;1&amp;0&amp;150 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="150"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki CIA3 z wykresu 'Figure 1' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 1 CIA3  0&amp;1&amp;0&amp;150 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 1 CIA3  0&amp;1&amp;0&amp;150 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="150"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki CIA4 z wykresu 'Figure 1' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 1 CIA4  0&amp;1&amp;0&amp;150 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 1 CIA4  0&amp;1&amp;0&amp;150 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="150"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -164,12 +1118,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1_1 IA2  0-1-0-225 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_1 IA2  0&amp;1&amp;0&amp;225 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1_1 IA2  0-1-0-225 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_1 IA2  0&amp;1&amp;0&amp;225 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -386,7 +1340,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -478,12 +1432,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1_1 IA3  0-1-0-225 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_1 IA3  0&amp;1&amp;0&amp;225 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1_1 IA3  0-1-0-225 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_1 IA3  0&amp;1&amp;0&amp;225 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -700,7 +1654,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -792,12 +1746,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1_1 IA4  0-1-0-225 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_1 IA4  0&amp;1&amp;0&amp;225 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1_1 IA4  0-1-0-225 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_1 IA4  0&amp;1&amp;0&amp;225 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1134,6 +2088,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
@@ -2177,6 +3251,1569 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2785,6 +5422,111 @@
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3120,298 +5862,298 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.2018</v>
+        <v>0.9899</v>
       </c>
       <c r="B3" s="0">
-        <v>124.331</v>
+        <v>103.3784</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.2526</v>
+        <v>0.9508</v>
       </c>
       <c r="B4" s="0">
-        <v>125.1038</v>
+        <v>101.7857</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.3015</v>
+        <v>0.9325</v>
       </c>
       <c r="B5" s="0">
-        <v>125.8063</v>
+        <v>102.5097</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.3504</v>
+        <v>0.9006</v>
       </c>
       <c r="B6" s="0">
-        <v>126.5088</v>
+        <v>101.7857</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.4012</v>
+        <v>0.8818</v>
       </c>
       <c r="B7" s="0">
-        <v>127.0708</v>
+        <v>102.2201</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.4511</v>
+        <v>0.8511</v>
       </c>
       <c r="B8" s="0">
-        <v>127.7382</v>
+        <v>101.4961</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.501</v>
+        <v>0.8315</v>
       </c>
       <c r="B9" s="0">
-        <v>127.9138</v>
+        <v>102.2201</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.5323</v>
+        <v>0.8196</v>
       </c>
       <c r="B10" s="0">
-        <v>127.9138</v>
+        <v>101.4961</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.5508</v>
+        <v>0.7821</v>
       </c>
       <c r="B11" s="0">
-        <v>127.0357</v>
+        <v>102.0753</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.632</v>
+        <v>0.751</v>
       </c>
       <c r="B12" s="0">
-        <v>128.1246</v>
+        <v>101.3514</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.6506</v>
+        <v>0.731</v>
       </c>
       <c r="B13" s="0">
-        <v>127.1235</v>
+        <v>101.9305</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.6818</v>
+        <v>0.7003</v>
       </c>
       <c r="B14" s="0">
-        <v>127.9138</v>
+        <v>100.917</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.7024</v>
+        <v>0.6812</v>
       </c>
       <c r="B15" s="0">
-        <v>127.2113</v>
+        <v>101.9305</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.7317</v>
+        <v>0.6696</v>
       </c>
       <c r="B16" s="0">
-        <v>128.1246</v>
+        <v>100.917</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.8813</v>
+        <v>0.6313</v>
       </c>
       <c r="B17" s="0">
-        <v>128.1965</v>
+        <v>101.7857</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.9018</v>
+        <v>0.6002</v>
       </c>
       <c r="B18" s="0">
-        <v>128.0552</v>
+        <v>100.3378</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.9331</v>
+        <v>0.581</v>
       </c>
       <c r="B19" s="0">
-        <v>128.2659</v>
+        <v>101.9305</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.9701</v>
+        <v>0.5499</v>
       </c>
       <c r="B20" s="0">
-        <v>128.25</v>
+        <v>101.7857</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.8324</v>
+        <v>0.5005</v>
       </c>
       <c r="B21" s="0">
-        <v>128.0465</v>
+        <v>102.3649</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.8206</v>
+        <v>0.451</v>
       </c>
       <c r="B22" s="0">
-        <v>127.7638</v>
+        <v>100.3378</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.7821</v>
+        <v>0.4315</v>
       </c>
       <c r="B23" s="0">
-        <v>128.3291</v>
+        <v>101.3514</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.7687</v>
+        <v>0.4007</v>
       </c>
       <c r="B24" s="0">
-        <v>127.7638</v>
+        <v>101.0618</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.9913</v>
+        <v>0.3513</v>
       </c>
       <c r="B25" s="0">
-        <v>128.8945</v>
+        <v>100.917</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.8509</v>
+        <v>0.3002</v>
       </c>
       <c r="B26" s="0">
-        <v>127.7638</v>
+        <v>100.7722</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5822</v>
+        <v>0.2512</v>
       </c>
       <c r="B27" s="0">
-        <v>128.3291</v>
+        <v>99.9035</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.6011</v>
+        <v>0.2001</v>
       </c>
       <c r="B28" s="0">
-        <v>127.4812</v>
+        <v>99.1795</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.1518</v>
+        <v>0.1498</v>
       </c>
       <c r="B29" s="0">
-        <v>122.8172</v>
+        <v>98.166</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.105</v>
+        <v>0.104</v>
       </c>
       <c r="B30" s="0">
-        <v>121.6866</v>
+        <v>97.4421</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.0913</v>
+        <v>0.0904</v>
       </c>
       <c r="B31" s="0">
-        <v>121.2626</v>
+        <v>97.5869</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.081</v>
+        <v>0.0812</v>
       </c>
       <c r="B32" s="0">
-        <v>120.6972</v>
+        <v>96.5734</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.0724</v>
+        <v>0.0713</v>
       </c>
       <c r="B33" s="0">
-        <v>120.1319</v>
+        <v>96.2838</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.0622</v>
+        <v>0.0601</v>
       </c>
       <c r="B34" s="0">
-        <v>119.1426</v>
+        <v>95.5598</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.0523</v>
+        <v>0.0485</v>
       </c>
       <c r="B35" s="0">
-        <v>118.4359</v>
+        <v>94.9807</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.0409</v>
+        <v>0.0385</v>
       </c>
       <c r="B36" s="0">
-        <v>117.1639</v>
+        <v>94.112</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.0307</v>
+        <v>0.0282</v>
       </c>
       <c r="B37" s="0">
-        <v>115.892</v>
+        <v>93.0985</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.0216</v>
+        <v>0.0194</v>
       </c>
       <c r="B38" s="0">
-        <v>113.6307</v>
+        <v>92.0849</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.0114</v>
+        <v>0.0094</v>
       </c>
       <c r="B39" s="0">
-        <v>111.0867</v>
+        <v>89.4788</v>
       </c>
     </row>
     <row r="40"/>
@@ -3423,6 +6165,1002 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.99</v>
+      </c>
+      <c r="B3" s="0">
+        <v>125.6757</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9505</v>
+      </c>
+      <c r="B4" s="0">
+        <v>124.2278</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.9317</v>
+      </c>
+      <c r="B5" s="0">
+        <v>124.8069</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.919</v>
+      </c>
+      <c r="B6" s="0">
+        <v>124.3726</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.8803</v>
+      </c>
+      <c r="B7" s="0">
+        <v>124.9517</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.8683</v>
+      </c>
+      <c r="B8" s="0">
+        <v>124.5174</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.8296</v>
+      </c>
+      <c r="B9" s="0">
+        <v>124.9517</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.8184</v>
+      </c>
+      <c r="B10" s="0">
+        <v>124.6622</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.7794</v>
+      </c>
+      <c r="B11" s="0">
+        <v>124.9517</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.7311</v>
+      </c>
+      <c r="B12" s="0">
+        <v>125.0965</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.6808</v>
+      </c>
+      <c r="B13" s="0">
+        <v>124.9517</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.6314</v>
+      </c>
+      <c r="B14" s="0">
+        <v>125.0965</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.5811</v>
+      </c>
+      <c r="B15" s="0">
+        <v>125.3861</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.5699</v>
+      </c>
+      <c r="B16" s="0">
+        <v>124.2278</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.5297</v>
+      </c>
+      <c r="B17" s="0">
+        <v>125.0965</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.5001</v>
+      </c>
+      <c r="B18" s="0">
+        <v>124.3726</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.4798</v>
+      </c>
+      <c r="B19" s="0">
+        <v>125.3861</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.4511</v>
+      </c>
+      <c r="B20" s="0">
+        <v>124.3726</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.4303</v>
+      </c>
+      <c r="B21" s="0">
+        <v>124.9517</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.4004</v>
+      </c>
+      <c r="B22" s="0">
+        <v>124.8069</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.3506</v>
+      </c>
+      <c r="B23" s="0">
+        <v>124.9517</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.3011</v>
+      </c>
+      <c r="B24" s="0">
+        <v>124.2278</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.2504</v>
+      </c>
+      <c r="B25" s="0">
+        <v>124.083</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.2002</v>
+      </c>
+      <c r="B26" s="0">
+        <v>123.6486</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.1487</v>
+      </c>
+      <c r="B27" s="0">
+        <v>123.0695</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.1016</v>
+      </c>
+      <c r="B28" s="0">
+        <v>121.1873</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.0881</v>
+      </c>
+      <c r="B29" s="0">
+        <v>120.4633</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.0733</v>
+      </c>
+      <c r="B30" s="0">
+        <v>119.8842</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.0601</v>
+      </c>
+      <c r="B31" s="0">
+        <v>118.8707</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.0486</v>
+      </c>
+      <c r="B32" s="0">
+        <v>117.5676</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.0386</v>
+      </c>
+      <c r="B33" s="0">
+        <v>116.8436</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.0222</v>
+      </c>
+      <c r="B34" s="0">
+        <v>115.1062</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.0107</v>
+      </c>
+      <c r="B35" s="0">
+        <v>111.6313</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.0051</v>
+      </c>
+      <c r="B36" s="0">
+        <v>107.2876</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.0027</v>
+      </c>
+      <c r="B37" s="0">
+        <v>103.0888</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.0011</v>
+      </c>
+      <c r="B38" s="0">
+        <v>98.6004</v>
+      </c>
+    </row>
+    <row r="39"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9891</v>
+      </c>
+      <c r="B3" s="0">
+        <v>110.9073</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9492</v>
+      </c>
+      <c r="B4" s="0">
+        <v>109.749</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.9305</v>
+      </c>
+      <c r="B5" s="0">
+        <v>110.0386</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.9177</v>
+      </c>
+      <c r="B6" s="0">
+        <v>109.8938</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.8806</v>
+      </c>
+      <c r="B7" s="0">
+        <v>110.0386</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.8683</v>
+      </c>
+      <c r="B8" s="0">
+        <v>109.6042</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.8296</v>
+      </c>
+      <c r="B9" s="0">
+        <v>110.0386</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.8001</v>
+      </c>
+      <c r="B10" s="0">
+        <v>109.4595</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.7793</v>
+      </c>
+      <c r="B11" s="0">
+        <v>109.8938</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.749</v>
+      </c>
+      <c r="B12" s="0">
+        <v>109.3147</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.7298</v>
+      </c>
+      <c r="B13" s="0">
+        <v>109.8938</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.7183</v>
+      </c>
+      <c r="B14" s="0">
+        <v>109.0251</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.6804</v>
+      </c>
+      <c r="B15" s="0">
+        <v>109.8938</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.6688</v>
+      </c>
+      <c r="B16" s="0">
+        <v>109.3147</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.6305</v>
+      </c>
+      <c r="B17" s="0">
+        <v>110.0386</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.599</v>
+      </c>
+      <c r="B18" s="0">
+        <v>109.749</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.5803</v>
+      </c>
+      <c r="B19" s="0">
+        <v>109.8938</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.5488</v>
+      </c>
+      <c r="B20" s="0">
+        <v>108.8803</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.5296</v>
+      </c>
+      <c r="B21" s="0">
+        <v>110.3282</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.4989</v>
+      </c>
+      <c r="B22" s="0">
+        <v>109.1699</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.4809</v>
+      </c>
+      <c r="B23" s="0">
+        <v>110.1834</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.4498</v>
+      </c>
+      <c r="B24" s="0">
+        <v>109.6042</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.3996</v>
+      </c>
+      <c r="B25" s="0">
+        <v>109.0251</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.3501</v>
+      </c>
+      <c r="B26" s="0">
+        <v>108.7355</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.3003</v>
+      </c>
+      <c r="B27" s="0">
+        <v>108.8803</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.25</v>
+      </c>
+      <c r="B28" s="0">
+        <v>108.0116</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.2001</v>
+      </c>
+      <c r="B29" s="0">
+        <v>107.2876</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.1503</v>
+      </c>
+      <c r="B30" s="0">
+        <v>106.4189</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.1008</v>
+      </c>
+      <c r="B31" s="0">
+        <v>105.1158</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.09</v>
+      </c>
+      <c r="B32" s="0">
+        <v>104.5367</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.0797</v>
+      </c>
+      <c r="B33" s="0">
+        <v>103.9575</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.0689</v>
+      </c>
+      <c r="B34" s="0">
+        <v>103.3784</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.0601</v>
+      </c>
+      <c r="B35" s="0">
+        <v>102.7992</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.0501</v>
+      </c>
+      <c r="B36" s="0">
+        <v>102.3649</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.0402</v>
+      </c>
+      <c r="B37" s="0">
+        <v>101.6409</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.0298</v>
+      </c>
+      <c r="B38" s="0">
+        <v>100.4826</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.021</v>
+      </c>
+      <c r="B39" s="0">
+        <v>98.4556</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.0102</v>
+      </c>
+      <c r="B40" s="0">
+        <v>96.139</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.005</v>
+      </c>
+      <c r="B41" s="0">
+        <v>91.9402</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.0022</v>
+      </c>
+      <c r="B42" s="0">
+        <v>88.0309</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>-0.0006</v>
+      </c>
+      <c r="B43" s="0">
+        <v>84.2664</v>
+      </c>
+    </row>
+    <row r="44"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.2018</v>
+      </c>
+      <c r="B3" s="0">
+        <v>124.331</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.2526</v>
+      </c>
+      <c r="B4" s="0">
+        <v>125.1038</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.3015</v>
+      </c>
+      <c r="B5" s="0">
+        <v>125.8063</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.3504</v>
+      </c>
+      <c r="B6" s="0">
+        <v>126.5088</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.4012</v>
+      </c>
+      <c r="B7" s="0">
+        <v>127.0708</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.4511</v>
+      </c>
+      <c r="B8" s="0">
+        <v>127.7382</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.501</v>
+      </c>
+      <c r="B9" s="0">
+        <v>127.9138</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.5323</v>
+      </c>
+      <c r="B10" s="0">
+        <v>127.9138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.5508</v>
+      </c>
+      <c r="B11" s="0">
+        <v>127.0357</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.632</v>
+      </c>
+      <c r="B12" s="0">
+        <v>128.1246</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.6506</v>
+      </c>
+      <c r="B13" s="0">
+        <v>127.1235</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.6818</v>
+      </c>
+      <c r="B14" s="0">
+        <v>127.9138</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.7024</v>
+      </c>
+      <c r="B15" s="0">
+        <v>127.2113</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.7317</v>
+      </c>
+      <c r="B16" s="0">
+        <v>128.1246</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.8813</v>
+      </c>
+      <c r="B17" s="0">
+        <v>128.1965</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.9018</v>
+      </c>
+      <c r="B18" s="0">
+        <v>128.0552</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.9331</v>
+      </c>
+      <c r="B19" s="0">
+        <v>128.2659</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.9701</v>
+      </c>
+      <c r="B20" s="0">
+        <v>128.25</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.8324</v>
+      </c>
+      <c r="B21" s="0">
+        <v>128.0465</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.8206</v>
+      </c>
+      <c r="B22" s="0">
+        <v>127.7638</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.7821</v>
+      </c>
+      <c r="B23" s="0">
+        <v>128.3291</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.7687</v>
+      </c>
+      <c r="B24" s="0">
+        <v>127.7638</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.9913</v>
+      </c>
+      <c r="B25" s="0">
+        <v>128.8945</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.8509</v>
+      </c>
+      <c r="B26" s="0">
+        <v>127.7638</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.5822</v>
+      </c>
+      <c r="B27" s="0">
+        <v>128.3291</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.6011</v>
+      </c>
+      <c r="B28" s="0">
+        <v>127.4812</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.1518</v>
+      </c>
+      <c r="B29" s="0">
+        <v>122.8172</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.105</v>
+      </c>
+      <c r="B30" s="0">
+        <v>121.6866</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.0913</v>
+      </c>
+      <c r="B31" s="0">
+        <v>121.2626</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.081</v>
+      </c>
+      <c r="B32" s="0">
+        <v>120.6972</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.0724</v>
+      </c>
+      <c r="B33" s="0">
+        <v>120.1319</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.0622</v>
+      </c>
+      <c r="B34" s="0">
+        <v>119.1426</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.0523</v>
+      </c>
+      <c r="B35" s="0">
+        <v>118.4359</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.0409</v>
+      </c>
+      <c r="B36" s="0">
+        <v>117.1639</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.0307</v>
+      </c>
+      <c r="B37" s="0">
+        <v>115.892</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.0216</v>
+      </c>
+      <c r="B38" s="0">
+        <v>113.6307</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.0114</v>
+      </c>
+      <c r="B39" s="0">
+        <v>111.0867</v>
+      </c>
+    </row>
+    <row r="40"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3431,7 +7169,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
@@ -3713,7 +7451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B49"/>
   <sheetViews>
@@ -3723,7 +7461,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">

--- a/ArticleManage/main_working_folder/output_folders/Data 130 Characteristics of Activated Carbon/Data130_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 130 Characteristics of Activated Carbon/Data130_all_graphs_excel.xlsx
@@ -5,12 +5,12 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 1 CIA1  0&amp;1&amp;0&amp;150 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 1 CIA3  0&amp;1&amp;0&amp;150 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 1 CIA4  0&amp;1&amp;0&amp;150 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 1_1 IA2  0&amp;1&amp;0&amp;225 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 1_1 IA3  0&amp;1&amp;0&amp;225 " sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 1_1 IA4  0&amp;1&amp;0&amp;225 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 1_1 IA2  0&amp;1&amp;0&amp;225 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1_1 IA3  0&amp;1&amp;0&amp;225 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1_1 IA4  0&amp;1&amp;0&amp;225 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1_2 CIA1  0&amp;1&amp;0&amp;150 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 1_2 CIA3  0&amp;1&amp;0&amp;150 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 1_2 CIA4  0&amp;1&amp;0&amp;150 " sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -19,7 +19,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>CIA1</t>
+    <t>IA2</t>
   </si>
   <si>
     <t>X</t>
@@ -28,19 +28,19 @@
     <t>Y</t>
   </si>
   <si>
+    <t>IA3</t>
+  </si>
+  <si>
+    <t>IA4</t>
+  </si>
+  <si>
+    <t>CIA1</t>
+  </si>
+  <si>
     <t>CIA3</t>
   </si>
   <si>
     <t>CIA4</t>
-  </si>
-  <si>
-    <t>IA2</t>
-  </si>
-  <si>
-    <t>IA3</t>
-  </si>
-  <si>
-    <t>IA4</t>
   </si>
 </sst>
 </file>
@@ -85,948 +85,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki CIA1 z wykresu 'Figure 1' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 1 CIA1  0&amp;1&amp;0&amp;150 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 1 CIA1  0&amp;1&amp;0&amp;150 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="150"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki CIA3 z wykresu 'Figure 1' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 1 CIA3  0&amp;1&amp;0&amp;150 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 1 CIA3  0&amp;1&amp;0&amp;150 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="150"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki CIA4 z wykresu 'Figure 1' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 1 CIA4  0&amp;1&amp;0&amp;150 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 1 CIA4  0&amp;1&amp;0&amp;150 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="150"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1340,7 +398,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1654,7 +712,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1836,6 +894,948 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="225"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki CIA1 z wykresu 'Figure 1_2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 1_2 CIA1  0&amp;1&amp;0&amp;150 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 1_2 CIA1  0&amp;1&amp;0&amp;150 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="150"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki CIA3 z wykresu 'Figure 1_2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 1_2 CIA3  0&amp;1&amp;0&amp;150 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 1_2 CIA3  0&amp;1&amp;0&amp;150 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="150"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki CIA4 z wykresu 'Figure 1_2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 1_2 CIA4  0&amp;1&amp;0&amp;150 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 1_2 CIA4  0&amp;1&amp;0&amp;150 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="150"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -5862,298 +5862,298 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9899</v>
+        <v>0.2018</v>
       </c>
       <c r="B3" s="0">
-        <v>103.3784</v>
+        <v>124.331</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9508</v>
+        <v>0.2526</v>
       </c>
       <c r="B4" s="0">
-        <v>101.7857</v>
+        <v>125.1038</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9325</v>
+        <v>0.3015</v>
       </c>
       <c r="B5" s="0">
-        <v>102.5097</v>
+        <v>125.8063</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.9006</v>
+        <v>0.3504</v>
       </c>
       <c r="B6" s="0">
-        <v>101.7857</v>
+        <v>126.5088</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.8818</v>
+        <v>0.4012</v>
       </c>
       <c r="B7" s="0">
-        <v>102.2201</v>
+        <v>127.0708</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.8511</v>
+        <v>0.4511</v>
       </c>
       <c r="B8" s="0">
-        <v>101.4961</v>
+        <v>127.7382</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.8315</v>
+        <v>0.501</v>
       </c>
       <c r="B9" s="0">
-        <v>102.2201</v>
+        <v>127.9138</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.8196</v>
+        <v>0.5323</v>
       </c>
       <c r="B10" s="0">
-        <v>101.4961</v>
+        <v>127.9138</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.7821</v>
+        <v>0.5508</v>
       </c>
       <c r="B11" s="0">
-        <v>102.0753</v>
+        <v>127.0357</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.751</v>
+        <v>0.632</v>
       </c>
       <c r="B12" s="0">
-        <v>101.3514</v>
+        <v>128.1246</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.731</v>
+        <v>0.6506</v>
       </c>
       <c r="B13" s="0">
-        <v>101.9305</v>
+        <v>127.1235</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.7003</v>
+        <v>0.6818</v>
       </c>
       <c r="B14" s="0">
-        <v>100.917</v>
+        <v>127.9138</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.6812</v>
+        <v>0.7024</v>
       </c>
       <c r="B15" s="0">
-        <v>101.9305</v>
+        <v>127.2113</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.6696</v>
+        <v>0.7317</v>
       </c>
       <c r="B16" s="0">
-        <v>100.917</v>
+        <v>128.1246</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.6313</v>
+        <v>0.8813</v>
       </c>
       <c r="B17" s="0">
-        <v>101.7857</v>
+        <v>128.1965</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.6002</v>
+        <v>0.9018</v>
       </c>
       <c r="B18" s="0">
-        <v>100.3378</v>
+        <v>128.0552</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.581</v>
+        <v>0.9331</v>
       </c>
       <c r="B19" s="0">
-        <v>101.9305</v>
+        <v>128.2659</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.5499</v>
+        <v>0.9701</v>
       </c>
       <c r="B20" s="0">
-        <v>101.7857</v>
+        <v>128.25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.5005</v>
+        <v>0.8324</v>
       </c>
       <c r="B21" s="0">
-        <v>102.3649</v>
+        <v>128.0465</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.451</v>
+        <v>0.8206</v>
       </c>
       <c r="B22" s="0">
-        <v>100.3378</v>
+        <v>127.7638</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.4315</v>
+        <v>0.7821</v>
       </c>
       <c r="B23" s="0">
-        <v>101.3514</v>
+        <v>128.3291</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.4007</v>
+        <v>0.7687</v>
       </c>
       <c r="B24" s="0">
-        <v>101.0618</v>
+        <v>127.7638</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.3513</v>
+        <v>0.9913</v>
       </c>
       <c r="B25" s="0">
-        <v>100.917</v>
+        <v>128.8945</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.3002</v>
+        <v>0.8509</v>
       </c>
       <c r="B26" s="0">
-        <v>100.7722</v>
+        <v>127.7638</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.2512</v>
+        <v>0.5822</v>
       </c>
       <c r="B27" s="0">
-        <v>99.9035</v>
+        <v>128.3291</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.2001</v>
+        <v>0.6011</v>
       </c>
       <c r="B28" s="0">
-        <v>99.1795</v>
+        <v>127.4812</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.1498</v>
+        <v>0.1518</v>
       </c>
       <c r="B29" s="0">
-        <v>98.166</v>
+        <v>122.8172</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.104</v>
+        <v>0.105</v>
       </c>
       <c r="B30" s="0">
-        <v>97.4421</v>
+        <v>121.6866</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.0904</v>
+        <v>0.0913</v>
       </c>
       <c r="B31" s="0">
-        <v>97.5869</v>
+        <v>121.2626</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.0812</v>
+        <v>0.081</v>
       </c>
       <c r="B32" s="0">
-        <v>96.5734</v>
+        <v>120.6972</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.0713</v>
+        <v>0.0724</v>
       </c>
       <c r="B33" s="0">
-        <v>96.2838</v>
+        <v>120.1319</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.0601</v>
+        <v>0.0622</v>
       </c>
       <c r="B34" s="0">
-        <v>95.5598</v>
+        <v>119.1426</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.0485</v>
+        <v>0.0523</v>
       </c>
       <c r="B35" s="0">
-        <v>94.9807</v>
+        <v>118.4359</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.0385</v>
+        <v>0.0409</v>
       </c>
       <c r="B36" s="0">
-        <v>94.112</v>
+        <v>117.1639</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.0282</v>
+        <v>0.0307</v>
       </c>
       <c r="B37" s="0">
-        <v>93.0985</v>
+        <v>115.892</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.0194</v>
+        <v>0.0216</v>
       </c>
       <c r="B38" s="0">
-        <v>92.0849</v>
+        <v>113.6307</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.0094</v>
+        <v>0.0114</v>
       </c>
       <c r="B39" s="0">
-        <v>89.4788</v>
+        <v>111.0867</v>
       </c>
     </row>
     <row r="40"/>
@@ -6165,7 +6165,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6186,293 +6186,269 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.99</v>
+        <v>0.0008</v>
       </c>
       <c r="B3" s="0">
-        <v>125.6757</v>
+        <v>81.1244</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9505</v>
+        <v>0.0016</v>
       </c>
       <c r="B4" s="0">
-        <v>124.2278</v>
+        <v>85.3643</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9317</v>
+        <v>0.0055</v>
       </c>
       <c r="B5" s="0">
-        <v>124.8069</v>
+        <v>89.8869</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.919</v>
+        <v>0.0134</v>
       </c>
       <c r="B6" s="0">
-        <v>124.3726</v>
+        <v>93.5616</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.8803</v>
+        <v>0.0236</v>
       </c>
       <c r="B7" s="0">
-        <v>124.9517</v>
+        <v>95.2575</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.8683</v>
+        <v>0.035</v>
       </c>
       <c r="B8" s="0">
-        <v>124.5174</v>
+        <v>97.3775</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.8296</v>
+        <v>0.0468</v>
       </c>
       <c r="B9" s="0">
-        <v>124.9517</v>
+        <v>98.7908</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.8184</v>
+        <v>0.059</v>
       </c>
       <c r="B10" s="0">
-        <v>124.6622</v>
+        <v>100.0628</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.7794</v>
+        <v>0.0696</v>
       </c>
       <c r="B11" s="0">
-        <v>124.9517</v>
+        <v>100.7695</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.7311</v>
+        <v>0.0806</v>
       </c>
       <c r="B12" s="0">
-        <v>125.0965</v>
+        <v>101.3348</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.6808</v>
+        <v>0.0921</v>
       </c>
       <c r="B13" s="0">
-        <v>124.9517</v>
+        <v>102.1828</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.6314</v>
+        <v>0.1027</v>
       </c>
       <c r="B14" s="0">
-        <v>125.0965</v>
+        <v>102.8894</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.5811</v>
+        <v>0.1511</v>
       </c>
       <c r="B15" s="0">
-        <v>125.3861</v>
+        <v>104.0201</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.5699</v>
+        <v>0.2022</v>
       </c>
       <c r="B16" s="0">
-        <v>124.2278</v>
+        <v>105.2921</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.5297</v>
+        <v>0.2522</v>
       </c>
       <c r="B17" s="0">
-        <v>125.0965</v>
+        <v>105.7161</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.5001</v>
+        <v>0.3029</v>
       </c>
       <c r="B18" s="0">
-        <v>124.3726</v>
+        <v>106.4227</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.4798</v>
+        <v>0.3509</v>
       </c>
       <c r="B19" s="0">
-        <v>125.3861</v>
+        <v>106.5641</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.4511</v>
+        <v>0.4013</v>
       </c>
       <c r="B20" s="0">
-        <v>124.3726</v>
+        <v>107.1294</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4303</v>
+        <v>0.4296</v>
       </c>
       <c r="B21" s="0">
-        <v>124.9517</v>
+        <v>107.6947</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4004</v>
+        <v>0.4504</v>
       </c>
       <c r="B22" s="0">
-        <v>124.8069</v>
+        <v>105.7161</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.3506</v>
+        <v>0.4811</v>
       </c>
       <c r="B23" s="0">
-        <v>124.9517</v>
+        <v>107.8361</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.3011</v>
+        <v>0.5205</v>
       </c>
       <c r="B24" s="0">
-        <v>124.2278</v>
+        <v>106.5641</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.2504</v>
+        <v>0.5511</v>
       </c>
       <c r="B25" s="0">
-        <v>124.083</v>
+        <v>106.7054</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.2002</v>
+        <v>0.6011</v>
       </c>
       <c r="B26" s="0">
-        <v>123.6486</v>
+        <v>106.8467</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.1487</v>
+        <v>0.631</v>
       </c>
       <c r="B27" s="0">
-        <v>123.0695</v>
+        <v>107.4121</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.1016</v>
+        <v>0.6703</v>
       </c>
       <c r="B28" s="0">
-        <v>121.1873</v>
+        <v>106.5641</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0881</v>
+        <v>0.7199</v>
       </c>
       <c r="B29" s="0">
-        <v>120.4633</v>
+        <v>106.1401</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.0733</v>
+        <v>0.7695</v>
       </c>
       <c r="B30" s="0">
-        <v>119.8842</v>
+        <v>106.1401</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.0601</v>
+        <v>0.9898</v>
       </c>
       <c r="B31" s="0">
-        <v>118.8707</v>
+        <v>108.5427</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.0486</v>
+        <v>0.9496</v>
       </c>
       <c r="B32" s="0">
-        <v>117.5676</v>
+        <v>107.4121</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.0386</v>
+        <v>0.9315</v>
       </c>
       <c r="B33" s="0">
-        <v>116.8436</v>
+        <v>107.8361</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.0222</v>
+        <v>0.9194</v>
       </c>
       <c r="B34" s="0">
-        <v>115.1062</v>
+        <v>107.6947</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.0107</v>
+        <v>0.8816</v>
       </c>
       <c r="B35" s="0">
-        <v>111.6313</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.0051</v>
-      </c>
-      <c r="B36" s="0">
-        <v>107.2876</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.0027</v>
-      </c>
-      <c r="B37" s="0">
-        <v>103.0888</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.0011</v>
-      </c>
-      <c r="B38" s="0">
-        <v>98.6004</v>
-      </c>
-    </row>
-    <row r="39"/>
+        <v>108.684</v>
+      </c>
+    </row>
+    <row r="36"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -6481,7 +6457,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6502,333 +6478,373 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9891</v>
+        <v>0.0023</v>
       </c>
       <c r="B3" s="0">
-        <v>110.9073</v>
+        <v>89.3567</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9492</v>
+        <v>0.0106</v>
       </c>
       <c r="B4" s="0">
-        <v>109.749</v>
+        <v>103.461</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9305</v>
+        <v>0.0208</v>
       </c>
       <c r="B5" s="0">
-        <v>110.0386</v>
+        <v>106.6493</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.9177</v>
+        <v>0.032</v>
       </c>
       <c r="B6" s="0">
-        <v>109.8938</v>
+        <v>108.665</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.8806</v>
+        <v>0.0426</v>
       </c>
       <c r="B7" s="0">
-        <v>110.0386</v>
+        <v>109.7594</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.8683</v>
+        <v>0.0521</v>
       </c>
       <c r="B8" s="0">
-        <v>109.6042</v>
+        <v>110.8863</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.8296</v>
+        <v>0.0622</v>
       </c>
       <c r="B9" s="0">
-        <v>110.0386</v>
+        <v>111.3345</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.8001</v>
+        <v>0.0725</v>
       </c>
       <c r="B10" s="0">
-        <v>109.4595</v>
+        <v>112.1073</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.7793</v>
+        <v>0.0829</v>
       </c>
       <c r="B11" s="0">
-        <v>109.8938</v>
+        <v>112.5589</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.749</v>
+        <v>0.093</v>
       </c>
       <c r="B12" s="0">
-        <v>109.3147</v>
+        <v>112.4585</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.7298</v>
+        <v>0.1032</v>
       </c>
       <c r="B13" s="0">
-        <v>109.8938</v>
+        <v>113.272</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.7183</v>
+        <v>0.1503</v>
       </c>
       <c r="B14" s="0">
-        <v>109.0251</v>
+        <v>113.9487</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.6804</v>
+        <v>0.181</v>
       </c>
       <c r="B15" s="0">
-        <v>109.8938</v>
+        <v>114.5661</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.6688</v>
+        <v>0.2024</v>
       </c>
       <c r="B16" s="0">
-        <v>109.3147</v>
+        <v>113.3172</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.6305</v>
+        <v>0.231</v>
       </c>
       <c r="B17" s="0">
-        <v>110.0386</v>
+        <v>114.485</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.599</v>
+        <v>0.252</v>
       </c>
       <c r="B18" s="0">
-        <v>109.749</v>
+        <v>113.3172</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.5803</v>
+        <v>0.2805</v>
       </c>
       <c r="B19" s="0">
-        <v>109.8938</v>
+        <v>114.4934</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.5488</v>
+        <v>0.3022</v>
       </c>
       <c r="B20" s="0">
-        <v>108.8803</v>
+        <v>113.3172</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.5296</v>
+        <v>0.3517</v>
       </c>
       <c r="B21" s="0">
-        <v>110.3282</v>
+        <v>112.7017</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4989</v>
+        <v>0.4016</v>
       </c>
       <c r="B22" s="0">
-        <v>109.1699</v>
+        <v>113.4033</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.4809</v>
+        <v>0.4196</v>
       </c>
       <c r="B23" s="0">
-        <v>110.1834</v>
+        <v>112.1853</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.4498</v>
+        <v>0.4702</v>
       </c>
       <c r="B24" s="0">
-        <v>109.6042</v>
+        <v>111.5219</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.3996</v>
+        <v>0.52</v>
       </c>
       <c r="B25" s="0">
-        <v>109.0251</v>
+        <v>110.7023</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.3501</v>
+        <v>0.5695</v>
       </c>
       <c r="B26" s="0">
-        <v>108.7355</v>
+        <v>110.2771</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.3003</v>
+        <v>0.6196</v>
       </c>
       <c r="B27" s="0">
-        <v>108.8803</v>
+        <v>109.4143</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.25</v>
+        <v>0.6701</v>
       </c>
       <c r="B28" s="0">
-        <v>108.0116</v>
+        <v>108.3674</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.2001</v>
+        <v>0.72</v>
       </c>
       <c r="B29" s="0">
-        <v>107.2876</v>
+        <v>107.541</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.1503</v>
+        <v>0.7693</v>
       </c>
       <c r="B30" s="0">
-        <v>106.4189</v>
+        <v>107.2775</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.1008</v>
+        <v>0.8195</v>
       </c>
       <c r="B31" s="0">
-        <v>105.1158</v>
+        <v>106.3116</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.09</v>
+        <v>0.8699</v>
       </c>
       <c r="B32" s="0">
-        <v>104.5367</v>
+        <v>105.3017</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.0797</v>
+        <v>0.9708</v>
       </c>
       <c r="B33" s="0">
-        <v>103.9575</v>
+        <v>103.922</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.0689</v>
+        <v>0.9205</v>
       </c>
       <c r="B34" s="0">
-        <v>103.3784</v>
+        <v>104.5854</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.0601</v>
+        <v>0.0039</v>
       </c>
       <c r="B35" s="0">
-        <v>102.7992</v>
+        <v>94.4095</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.0501</v>
+        <v>0.0071</v>
       </c>
       <c r="B36" s="0">
-        <v>102.3649</v>
+        <v>98.6495</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.0402</v>
+        <v>0.3312</v>
       </c>
       <c r="B37" s="0">
-        <v>101.6409</v>
+        <v>114.3373</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.0298</v>
+        <v>0.4312</v>
       </c>
       <c r="B38" s="0">
-        <v>100.4826</v>
+        <v>113.6307</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.021</v>
+        <v>0.4815</v>
       </c>
       <c r="B39" s="0">
-        <v>98.4556</v>
+        <v>113.4893</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.0102</v>
+        <v>0.5311</v>
       </c>
       <c r="B40" s="0">
-        <v>96.139</v>
+        <v>112.924</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.005</v>
+        <v>0.5806</v>
       </c>
       <c r="B41" s="0">
-        <v>91.9402</v>
+        <v>111.9347</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.0022</v>
+        <v>0.6302</v>
       </c>
       <c r="B42" s="0">
-        <v>88.0309</v>
+        <v>111.3693</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>-0.0006</v>
+        <v>0.681</v>
       </c>
       <c r="B43" s="0">
-        <v>84.2664</v>
-      </c>
-    </row>
-    <row r="44"/>
+        <v>110.2387</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>0.7305</v>
+      </c>
+      <c r="B44" s="0">
+        <v>109.3907</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>0.7805</v>
+      </c>
+      <c r="B45" s="0">
+        <v>107.9774</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>0.8312</v>
+      </c>
+      <c r="B46" s="0">
+        <v>107.6947</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>0.8808</v>
+      </c>
+      <c r="B47" s="0">
+        <v>106.4227</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>0.9127</v>
+      </c>
+      <c r="B48" s="0">
+        <v>105.9987</v>
+      </c>
+    </row>
+    <row r="49"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -6858,298 +6874,298 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.2018</v>
+        <v>0.9899</v>
       </c>
       <c r="B3" s="0">
-        <v>124.331</v>
+        <v>103.3784</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.2526</v>
+        <v>0.9508</v>
       </c>
       <c r="B4" s="0">
-        <v>125.1038</v>
+        <v>101.7857</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.3015</v>
+        <v>0.9325</v>
       </c>
       <c r="B5" s="0">
-        <v>125.8063</v>
+        <v>102.5097</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.3504</v>
+        <v>0.9006</v>
       </c>
       <c r="B6" s="0">
-        <v>126.5088</v>
+        <v>101.7857</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.4012</v>
+        <v>0.8818</v>
       </c>
       <c r="B7" s="0">
-        <v>127.0708</v>
+        <v>102.2201</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.4511</v>
+        <v>0.8511</v>
       </c>
       <c r="B8" s="0">
-        <v>127.7382</v>
+        <v>101.4961</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.501</v>
+        <v>0.8315</v>
       </c>
       <c r="B9" s="0">
-        <v>127.9138</v>
+        <v>102.2201</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.5323</v>
+        <v>0.8196</v>
       </c>
       <c r="B10" s="0">
-        <v>127.9138</v>
+        <v>101.4961</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.5508</v>
+        <v>0.7821</v>
       </c>
       <c r="B11" s="0">
-        <v>127.0357</v>
+        <v>102.0753</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.632</v>
+        <v>0.751</v>
       </c>
       <c r="B12" s="0">
-        <v>128.1246</v>
+        <v>101.3514</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.6506</v>
+        <v>0.731</v>
       </c>
       <c r="B13" s="0">
-        <v>127.1235</v>
+        <v>101.9305</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.6818</v>
+        <v>0.7003</v>
       </c>
       <c r="B14" s="0">
-        <v>127.9138</v>
+        <v>100.917</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.7024</v>
+        <v>0.6812</v>
       </c>
       <c r="B15" s="0">
-        <v>127.2113</v>
+        <v>101.9305</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.7317</v>
+        <v>0.6696</v>
       </c>
       <c r="B16" s="0">
-        <v>128.1246</v>
+        <v>100.917</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.8813</v>
+        <v>0.6313</v>
       </c>
       <c r="B17" s="0">
-        <v>128.1965</v>
+        <v>101.7857</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.9018</v>
+        <v>0.6002</v>
       </c>
       <c r="B18" s="0">
-        <v>128.0552</v>
+        <v>100.3378</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.9331</v>
+        <v>0.581</v>
       </c>
       <c r="B19" s="0">
-        <v>128.2659</v>
+        <v>101.9305</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.9701</v>
+        <v>0.5499</v>
       </c>
       <c r="B20" s="0">
-        <v>128.25</v>
+        <v>101.7857</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.8324</v>
+        <v>0.5005</v>
       </c>
       <c r="B21" s="0">
-        <v>128.0465</v>
+        <v>102.3649</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.8206</v>
+        <v>0.451</v>
       </c>
       <c r="B22" s="0">
-        <v>127.7638</v>
+        <v>100.3378</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.7821</v>
+        <v>0.4315</v>
       </c>
       <c r="B23" s="0">
-        <v>128.3291</v>
+        <v>101.3514</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.7687</v>
+        <v>0.4007</v>
       </c>
       <c r="B24" s="0">
-        <v>127.7638</v>
+        <v>101.0618</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.9913</v>
+        <v>0.3513</v>
       </c>
       <c r="B25" s="0">
-        <v>128.8945</v>
+        <v>100.917</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.8509</v>
+        <v>0.3002</v>
       </c>
       <c r="B26" s="0">
-        <v>127.7638</v>
+        <v>100.7722</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5822</v>
+        <v>0.2512</v>
       </c>
       <c r="B27" s="0">
-        <v>128.3291</v>
+        <v>99.9035</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.6011</v>
+        <v>0.2001</v>
       </c>
       <c r="B28" s="0">
-        <v>127.4812</v>
+        <v>99.1795</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.1518</v>
+        <v>0.1498</v>
       </c>
       <c r="B29" s="0">
-        <v>122.8172</v>
+        <v>98.166</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.105</v>
+        <v>0.104</v>
       </c>
       <c r="B30" s="0">
-        <v>121.6866</v>
+        <v>97.4421</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.0913</v>
+        <v>0.0904</v>
       </c>
       <c r="B31" s="0">
-        <v>121.2626</v>
+        <v>97.5869</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.081</v>
+        <v>0.0812</v>
       </c>
       <c r="B32" s="0">
-        <v>120.6972</v>
+        <v>96.5734</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.0724</v>
+        <v>0.0713</v>
       </c>
       <c r="B33" s="0">
-        <v>120.1319</v>
+        <v>96.2838</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.0622</v>
+        <v>0.0601</v>
       </c>
       <c r="B34" s="0">
-        <v>119.1426</v>
+        <v>95.5598</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.0523</v>
+        <v>0.0485</v>
       </c>
       <c r="B35" s="0">
-        <v>118.4359</v>
+        <v>94.9807</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.0409</v>
+        <v>0.0385</v>
       </c>
       <c r="B36" s="0">
-        <v>117.1639</v>
+        <v>94.112</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.0307</v>
+        <v>0.0282</v>
       </c>
       <c r="B37" s="0">
-        <v>115.892</v>
+        <v>93.0985</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.0216</v>
+        <v>0.0194</v>
       </c>
       <c r="B38" s="0">
-        <v>113.6307</v>
+        <v>92.0849</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.0114</v>
+        <v>0.0094</v>
       </c>
       <c r="B39" s="0">
-        <v>111.0867</v>
+        <v>89.4788</v>
       </c>
     </row>
     <row r="40"/>
@@ -7161,7 +7177,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7182,269 +7198,293 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0008</v>
+        <v>0.99</v>
       </c>
       <c r="B3" s="0">
-        <v>81.1244</v>
+        <v>125.6757</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0016</v>
+        <v>0.9505</v>
       </c>
       <c r="B4" s="0">
-        <v>85.3643</v>
+        <v>124.2278</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0055</v>
+        <v>0.9317</v>
       </c>
       <c r="B5" s="0">
-        <v>89.8869</v>
+        <v>124.8069</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0134</v>
+        <v>0.919</v>
       </c>
       <c r="B6" s="0">
-        <v>93.5616</v>
+        <v>124.3726</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0236</v>
+        <v>0.8803</v>
       </c>
       <c r="B7" s="0">
-        <v>95.2575</v>
+        <v>124.9517</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.035</v>
+        <v>0.8683</v>
       </c>
       <c r="B8" s="0">
-        <v>97.3775</v>
+        <v>124.5174</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0468</v>
+        <v>0.8296</v>
       </c>
       <c r="B9" s="0">
-        <v>98.7908</v>
+        <v>124.9517</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.059</v>
+        <v>0.8184</v>
       </c>
       <c r="B10" s="0">
-        <v>100.0628</v>
+        <v>124.6622</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0696</v>
+        <v>0.7794</v>
       </c>
       <c r="B11" s="0">
-        <v>100.7695</v>
+        <v>124.9517</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0806</v>
+        <v>0.7311</v>
       </c>
       <c r="B12" s="0">
-        <v>101.3348</v>
+        <v>125.0965</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0921</v>
+        <v>0.6808</v>
       </c>
       <c r="B13" s="0">
-        <v>102.1828</v>
+        <v>124.9517</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.1027</v>
+        <v>0.6314</v>
       </c>
       <c r="B14" s="0">
-        <v>102.8894</v>
+        <v>125.0965</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.1511</v>
+        <v>0.5811</v>
       </c>
       <c r="B15" s="0">
-        <v>104.0201</v>
+        <v>125.3861</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2022</v>
+        <v>0.5699</v>
       </c>
       <c r="B16" s="0">
-        <v>105.2921</v>
+        <v>124.2278</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2522</v>
+        <v>0.5297</v>
       </c>
       <c r="B17" s="0">
-        <v>105.7161</v>
+        <v>125.0965</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3029</v>
+        <v>0.5001</v>
       </c>
       <c r="B18" s="0">
-        <v>106.4227</v>
+        <v>124.3726</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3509</v>
+        <v>0.4798</v>
       </c>
       <c r="B19" s="0">
-        <v>106.5641</v>
+        <v>125.3861</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.4013</v>
+        <v>0.4511</v>
       </c>
       <c r="B20" s="0">
-        <v>107.1294</v>
+        <v>124.3726</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4296</v>
+        <v>0.4303</v>
       </c>
       <c r="B21" s="0">
-        <v>107.6947</v>
+        <v>124.9517</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4504</v>
+        <v>0.4004</v>
       </c>
       <c r="B22" s="0">
-        <v>105.7161</v>
+        <v>124.8069</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.4811</v>
+        <v>0.3506</v>
       </c>
       <c r="B23" s="0">
-        <v>107.8361</v>
+        <v>124.9517</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.5205</v>
+        <v>0.3011</v>
       </c>
       <c r="B24" s="0">
-        <v>106.5641</v>
+        <v>124.2278</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.5511</v>
+        <v>0.2504</v>
       </c>
       <c r="B25" s="0">
-        <v>106.7054</v>
+        <v>124.083</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.6011</v>
+        <v>0.2002</v>
       </c>
       <c r="B26" s="0">
-        <v>106.8467</v>
+        <v>123.6486</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.631</v>
+        <v>0.1487</v>
       </c>
       <c r="B27" s="0">
-        <v>107.4121</v>
+        <v>123.0695</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.6703</v>
+        <v>0.1016</v>
       </c>
       <c r="B28" s="0">
-        <v>106.5641</v>
+        <v>121.1873</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.7199</v>
+        <v>0.0881</v>
       </c>
       <c r="B29" s="0">
-        <v>106.1401</v>
+        <v>120.4633</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.7695</v>
+        <v>0.0733</v>
       </c>
       <c r="B30" s="0">
-        <v>106.1401</v>
+        <v>119.8842</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.9898</v>
+        <v>0.0601</v>
       </c>
       <c r="B31" s="0">
-        <v>108.5427</v>
+        <v>118.8707</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.9496</v>
+        <v>0.0486</v>
       </c>
       <c r="B32" s="0">
-        <v>107.4121</v>
+        <v>117.5676</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.9315</v>
+        <v>0.0386</v>
       </c>
       <c r="B33" s="0">
-        <v>107.8361</v>
+        <v>116.8436</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.9194</v>
+        <v>0.0222</v>
       </c>
       <c r="B34" s="0">
-        <v>107.6947</v>
+        <v>115.1062</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.8816</v>
+        <v>0.0107</v>
       </c>
       <c r="B35" s="0">
-        <v>108.684</v>
-      </c>
-    </row>
-    <row r="36"/>
+        <v>111.6313</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.0051</v>
+      </c>
+      <c r="B36" s="0">
+        <v>107.2876</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.0027</v>
+      </c>
+      <c r="B37" s="0">
+        <v>103.0888</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.0011</v>
+      </c>
+      <c r="B38" s="0">
+        <v>98.6004</v>
+      </c>
+    </row>
+    <row r="39"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -7453,7 +7493,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7474,373 +7514,333 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0023</v>
+        <v>0.9891</v>
       </c>
       <c r="B3" s="0">
-        <v>89.3567</v>
+        <v>110.9073</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0106</v>
+        <v>0.9492</v>
       </c>
       <c r="B4" s="0">
-        <v>103.461</v>
+        <v>109.749</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0208</v>
+        <v>0.9305</v>
       </c>
       <c r="B5" s="0">
-        <v>106.6493</v>
+        <v>110.0386</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.032</v>
+        <v>0.9177</v>
       </c>
       <c r="B6" s="0">
-        <v>108.665</v>
+        <v>109.8938</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0426</v>
+        <v>0.8806</v>
       </c>
       <c r="B7" s="0">
-        <v>109.7594</v>
+        <v>110.0386</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0521</v>
+        <v>0.8683</v>
       </c>
       <c r="B8" s="0">
-        <v>110.8863</v>
+        <v>109.6042</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0622</v>
+        <v>0.8296</v>
       </c>
       <c r="B9" s="0">
-        <v>111.3345</v>
+        <v>110.0386</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0725</v>
+        <v>0.8001</v>
       </c>
       <c r="B10" s="0">
-        <v>112.1073</v>
+        <v>109.4595</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0829</v>
+        <v>0.7793</v>
       </c>
       <c r="B11" s="0">
-        <v>112.5589</v>
+        <v>109.8938</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.093</v>
+        <v>0.749</v>
       </c>
       <c r="B12" s="0">
-        <v>112.4585</v>
+        <v>109.3147</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1032</v>
+        <v>0.7298</v>
       </c>
       <c r="B13" s="0">
-        <v>113.272</v>
+        <v>109.8938</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.1503</v>
+        <v>0.7183</v>
       </c>
       <c r="B14" s="0">
-        <v>113.9487</v>
+        <v>109.0251</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.181</v>
+        <v>0.6804</v>
       </c>
       <c r="B15" s="0">
-        <v>114.5661</v>
+        <v>109.8938</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2024</v>
+        <v>0.6688</v>
       </c>
       <c r="B16" s="0">
-        <v>113.3172</v>
+        <v>109.3147</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.231</v>
+        <v>0.6305</v>
       </c>
       <c r="B17" s="0">
-        <v>114.485</v>
+        <v>110.0386</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.252</v>
+        <v>0.599</v>
       </c>
       <c r="B18" s="0">
-        <v>113.3172</v>
+        <v>109.749</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.2805</v>
+        <v>0.5803</v>
       </c>
       <c r="B19" s="0">
-        <v>114.4934</v>
+        <v>109.8938</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3022</v>
+        <v>0.5488</v>
       </c>
       <c r="B20" s="0">
-        <v>113.3172</v>
+        <v>108.8803</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.3517</v>
+        <v>0.5296</v>
       </c>
       <c r="B21" s="0">
-        <v>112.7017</v>
+        <v>110.3282</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4016</v>
+        <v>0.4989</v>
       </c>
       <c r="B22" s="0">
-        <v>113.4033</v>
+        <v>109.1699</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.4196</v>
+        <v>0.4809</v>
       </c>
       <c r="B23" s="0">
-        <v>112.1853</v>
+        <v>110.1834</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.4702</v>
+        <v>0.4498</v>
       </c>
       <c r="B24" s="0">
-        <v>111.5219</v>
+        <v>109.6042</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.52</v>
+        <v>0.3996</v>
       </c>
       <c r="B25" s="0">
-        <v>110.7023</v>
+        <v>109.0251</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.5695</v>
+        <v>0.3501</v>
       </c>
       <c r="B26" s="0">
-        <v>110.2771</v>
+        <v>108.7355</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.6196</v>
+        <v>0.3003</v>
       </c>
       <c r="B27" s="0">
-        <v>109.4143</v>
+        <v>108.8803</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.6701</v>
+        <v>0.25</v>
       </c>
       <c r="B28" s="0">
-        <v>108.3674</v>
+        <v>108.0116</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.72</v>
+        <v>0.2001</v>
       </c>
       <c r="B29" s="0">
-        <v>107.541</v>
+        <v>107.2876</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.7693</v>
+        <v>0.1503</v>
       </c>
       <c r="B30" s="0">
-        <v>107.2775</v>
+        <v>106.4189</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.8195</v>
+        <v>0.1008</v>
       </c>
       <c r="B31" s="0">
-        <v>106.3116</v>
+        <v>105.1158</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.8699</v>
+        <v>0.09</v>
       </c>
       <c r="B32" s="0">
-        <v>105.3017</v>
+        <v>104.5367</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.9708</v>
+        <v>0.0797</v>
       </c>
       <c r="B33" s="0">
-        <v>103.922</v>
+        <v>103.9575</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.9205</v>
+        <v>0.0689</v>
       </c>
       <c r="B34" s="0">
-        <v>104.5854</v>
+        <v>103.3784</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.0039</v>
+        <v>0.0601</v>
       </c>
       <c r="B35" s="0">
-        <v>94.4095</v>
+        <v>102.7992</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.0071</v>
+        <v>0.0501</v>
       </c>
       <c r="B36" s="0">
-        <v>98.6495</v>
+        <v>102.3649</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.3312</v>
+        <v>0.0402</v>
       </c>
       <c r="B37" s="0">
-        <v>114.3373</v>
+        <v>101.6409</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.4312</v>
+        <v>0.0298</v>
       </c>
       <c r="B38" s="0">
-        <v>113.6307</v>
+        <v>100.4826</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.4815</v>
+        <v>0.021</v>
       </c>
       <c r="B39" s="0">
-        <v>113.4893</v>
+        <v>98.4556</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.5311</v>
+        <v>0.0102</v>
       </c>
       <c r="B40" s="0">
-        <v>112.924</v>
+        <v>96.139</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.5806</v>
+        <v>0.005</v>
       </c>
       <c r="B41" s="0">
-        <v>111.9347</v>
+        <v>91.9402</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.6302</v>
+        <v>0.0022</v>
       </c>
       <c r="B42" s="0">
-        <v>111.3693</v>
+        <v>88.0309</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.681</v>
+        <v>-0.0006</v>
       </c>
       <c r="B43" s="0">
-        <v>110.2387</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.7305</v>
-      </c>
-      <c r="B44" s="0">
-        <v>109.3907</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.7805</v>
-      </c>
-      <c r="B45" s="0">
-        <v>107.9774</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.8312</v>
-      </c>
-      <c r="B46" s="0">
-        <v>107.6947</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.8808</v>
-      </c>
-      <c r="B47" s="0">
-        <v>106.4227</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.9127</v>
-      </c>
-      <c r="B48" s="0">
-        <v>105.9987</v>
-      </c>
-    </row>
-    <row r="49"/>
+        <v>84.2664</v>
+      </c>
+    </row>
+    <row r="44"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
